--- a/进度.xlsx
+++ b/进度.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenwanxiang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charleshen/Desktop/THU_STAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,13 @@
   <sheets>
     <sheet name="工作表5" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -102,7 +106,7 @@
   </si>
   <si>
     <t>special模块（医学方法）</t>
-    <rPh sb="0" eb="127">
+    <rPh sb="0" eb="15">
       <t>yi xue fang fa</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,8 +230,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,11 +307,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,10 +630,10 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
@@ -639,26 +643,26 @@
     <col min="7" max="7" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -678,77 +682,77 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
@@ -758,116 +762,116 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D15" t="s">
@@ -877,11 +881,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D16" t="s">
@@ -891,11 +895,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -905,22 +909,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
